--- a/biology/Zoologie/Îles_Heard-et-MacDonald/Îles_Heard-et-MacDonald.xlsx
+++ b/biology/Zoologie/Îles_Heard-et-MacDonald/Îles_Heard-et-MacDonald.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Eles_Heard-et-MacDonald</t>
+          <t>Îles_Heard-et-MacDonald</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les îles Heard-et-MacDonald, en anglais Heard and McDonald Islands et Territory of Heard Island and McDonald Islands[1], sont un territoire extérieur de l'Australie situé dans le sud de l'océan Indien, sur la plaque antarctique. Il est constitué d'un petit archipel, les îles McDonald, ainsi que d'une île isolée, l'île Heard. Situé à 422 km au sud-sud-est des îles Kerguelen, à 1 473 km de la terre d'Enderby en Antarctique, à 3 800 km au sud-sud-est de Madagascar et à 3 858 km à l'ouest-sud-ouest du cap Leeuwin (Australie), le territoire est inhabité et administré par le Department of the Environment and Water Resources. Ces îles d'origine volcanique sont situées sur le plateau de Kerguelen.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les îles Heard-et-MacDonald, en anglais Heard and McDonald Islands et Territory of Heard Island and McDonald Islands, sont un territoire extérieur de l'Australie situé dans le sud de l'océan Indien, sur la plaque antarctique. Il est constitué d'un petit archipel, les îles McDonald, ainsi que d'une île isolée, l'île Heard. Situé à 422 km au sud-sud-est des îles Kerguelen, à 1 473 km de la terre d'Enderby en Antarctique, à 3 800 km au sud-sud-est de Madagascar et à 3 858 km à l'ouest-sud-ouest du cap Leeuwin (Australie), le territoire est inhabité et administré par le Department of the Environment and Water Resources. Ces îles d'origine volcanique sont situées sur le plateau de Kerguelen.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Eles_Heard-et-MacDonald</t>
+          <t>Îles_Heard-et-MacDonald</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le territoire est formé des îles McDonald, dont l'île McDonald, de l'île Heard ainsi que d'un groupe d'îlots et de rochers mesurant environ 1,1 km2 de superficie, situé à une dizaine de kilomètres au nord de l'île Heard et composé des îlots Shag Islet et Morgan Island et des rochers Sail Rock et Black Rock.
-Climat
-Le climat des îles Heard-et-MacDonald est de type ET (polaire et toundra). Bien que situées aux mêmes latitudes que l'Europe et d'une grande partie de l'Asie , les îles Heard-et-MacDonald sont très exposées au vent ce qui soumet les îles à un climat polaire par une latitude de 53ºS. Les précipitations se font essentiellement sous forme de neige, de pluie, de grésil et de bruine
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%8Eles_Heard-et-MacDonald</t>
+          <t>Îles_Heard-et-MacDonald</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat des îles Heard-et-MacDonald est de type ET (polaire et toundra). Bien que situées aux mêmes latitudes que l'Europe et d'une grande partie de l'Asie , les îles Heard-et-MacDonald sont très exposées au vent ce qui soumet les îles à un climat polaire par une latitude de 53ºS. Les précipitations se font essentiellement sous forme de neige, de pluie, de grésil et de bruine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Îles_Heard-et-MacDonald</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%8Eles_Heard-et-MacDonald</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La première personne à avoir aperçu de façon probable l'île Heard est Peter Kemp, un chasseur de phoques britannique qui la découvre le 27 novembre 1833 lors d'un voyage sur le Magnet depuis les îles Kerguelen vers l'Antarctique. Il aurait inscrit cette observation dans son journal de bord.
 Le capitaine John Heard, un chasseur de phoques américain voyageant sur l’Oriental entre Boston et Melbourne, observe à nouveau l'île Heard le 25 novembre 1853. Il rapporte sa découverte le mois suivant et l'île est baptisée en son nom. Le capitaine William McDonald à bord du Samarang découvre les îles McDonald le 4 janvier 1854.
@@ -554,31 +605,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%8Eles_Heard-et-MacDonald</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Îles_Heard-et-MacDonald</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%8Eles_Heard-et-MacDonald</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les îles Heard-et-MacDonald forment un territoire extérieur de l'Australie administré depuis Hobart en Tasmanie par la division Antarctique du Department of the Environment and Water Resources. Elles sont incluses dans une réserve maritime de 65 000 km2 de superficie et visitées principalement à des fins de recherche.
 Le territoire ne possède aucun port et aucune activité économique mais le code pays HM ainsi que le domaine .hm lui ont été attribués.
@@ -586,31 +639,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%8Eles_Heard-et-MacDonald</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Îles_Heard-et-MacDonald</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%8Eles_Heard-et-MacDonald</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (fr) Commission nationale de toponymie, conseil national de l'information géographique, Pays, territoires et villes du monde juillet 2021, 1er juillet 2022, 34 p. (présentation en ligne, lire en ligne), p. 3
